--- a/common/file_templates/members.xlsx
+++ b/common/file_templates/members.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>[a.fio;block=tbs:row]</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Дата регистрации</t>
+  </si>
+  <si>
+    <t>Регион</t>
+  </si>
+  <si>
+    <t>[a.region]</t>
   </si>
 </sst>
 </file>
@@ -517,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -530,13 +536,14 @@
     <col min="3" max="3" width="20.109375" customWidth="1"/>
     <col min="4" max="4" width="21.77734375" customWidth="1"/>
     <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
-    <col min="8" max="8" width="11.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="23.77734375" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -553,19 +560,22 @@
         <v>9</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -582,15 +592,18 @@
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
     </row>
